--- a/data/trans_camb/P14B34-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B34-Provincia-trans_camb.xlsx
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3417400181611667</v>
+        <v>0.3411873473308398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.690864451511664</v>
+        <v>1.68198279191986</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.111171315995023</v>
+        <v>3.113941161158022</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.237921916053537</v>
+        <v>6.139287938823371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.301938455258115</v>
+        <v>1.314989415478535</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.9169843516828288</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6660436661246509</v>
+        <v>0.6660436661246507</v>
       </c>
     </row>
     <row r="11">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.007589095234718</v>
+        <v>0.9981172040342591</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3464252012690437</v>
+        <v>0.3409283027878586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.196797735960627</v>
+        <v>0.1989470137605572</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.008825406560059</v>
+        <v>3.804813454943442</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.349066447285211</v>
+        <v>2.538273878468052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.793987313661297</v>
+        <v>1.802420553440431</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>1.73810218602975</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.091091993767924</v>
+        <v>2.091091993767925</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3169858207711632</v>
+        <v>0.3172183997053093</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7167348775854694</v>
+        <v>0.7105127215360063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.112051005093584</v>
+        <v>1.143922956747146</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.507301922079639</v>
+        <v>2.885162172793772</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.766537572698573</v>
+        <v>3.987744120051674</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.506892157765642</v>
+        <v>3.58146868927988</v>
       </c>
     </row>
     <row r="19">
@@ -890,7 +890,7 @@
         <v>0.2436678865430427</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4343066495389608</v>
+        <v>0.4343066495389609</v>
       </c>
     </row>
     <row r="23">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2975770091517184</v>
+        <v>0.3002360765252685</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.725052064510167</v>
+        <v>3.629442922595648</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.465439324857771</v>
+        <v>1.22742370229847</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.462430214685205</v>
+        <v>1.541253347756395</v>
       </c>
     </row>
     <row r="25">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4573451603268765</v>
+        <v>0.459595339755176</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3568206197382634</v>
+        <v>0.3587776748161283</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5834114358780421</v>
+        <v>0.5838153514673973</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.146657757078752</v>
+        <v>4.558915542906417</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.190534279389021</v>
+        <v>3.272985087303288</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.602554835818505</v>
+        <v>3.505571209151385</v>
       </c>
     </row>
     <row r="31">
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.3843058318029757</v>
+        <v>0.3927844243449311</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.6020614525241167</v>
+        <v>0.6671325201050813</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.91716804529739</v>
+        <v>1.944826254725422</v>
       </c>
     </row>
     <row r="36">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.836607491643006</v>
+        <v>4.206849778412272</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.796545795800228</v>
+        <v>3.743671147837582</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.88845069752838</v>
+        <v>4.754107376217478</v>
       </c>
     </row>
     <row r="37">
@@ -1190,7 +1190,7 @@
         <v>1.03372622579126</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.294406818392747</v>
+        <v>1.294406818392748</v>
       </c>
     </row>
     <row r="41">
@@ -1201,13 +1201,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.5009827494711145</v>
+        <v>0.4764166786646455</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.4344060847953624</v>
+        <v>0.4184952405748441</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.6059843570823009</v>
+        <v>0.6322533874657705</v>
       </c>
     </row>
     <row r="42">
@@ -1218,13 +1218,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.191947576576482</v>
+        <v>2.154556334891954</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.227943551765112</v>
+        <v>1.976725810141817</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.232274369705981</v>
+        <v>2.311234752311203</v>
       </c>
     </row>
     <row r="43">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.540583780005559</v>
+        <v>1.521514787682713</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.1110013440323227</v>
+        <v>0.1116760766569395</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.08621808290839227</v>
+        <v>0.08543827395777676</v>
       </c>
     </row>
     <row r="48">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.043440545342599</v>
+        <v>3.927822917098488</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.9553527280624884</v>
+        <v>1.046213154764676</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.8196385475204095</v>
+        <v>0.877488938446094</v>
       </c>
     </row>
     <row r="49">
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.301033410330223</v>
+        <v>1.270930758254853</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.795663170362374</v>
+        <v>0.8124139005835729</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.7455330612547365</v>
+        <v>0.7384729388097846</v>
       </c>
     </row>
     <row r="54">
@@ -1418,13 +1418,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.171424533858039</v>
+        <v>2.250756487543995</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.504343890446197</v>
+        <v>1.500994374347743</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.342369776924862</v>
+        <v>1.338683341780855</v>
       </c>
     </row>
     <row r="55">
